--- a/tests/test_query.xlsx
+++ b/tests/test_query.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomas\Desktop\CLIP_database_project\Database_comparator\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD85ACA4-B636-458A-B9D9-ACA20A01F673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12717F7-5630-4DFF-A6E7-0116A028DA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="1665" windowWidth="27345" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>info</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   </si>
   <si>
     <t>CGKHQAPPTQGSGIF</t>
+  </si>
+  <si>
+    <t>sequence</t>
   </si>
 </sst>
 </file>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,15 +661,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>62</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>83</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>73</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>43</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>92</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>77</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>68</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>29</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>52</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>69</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>43</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>11</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>14</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>42</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>46</v>
@@ -837,7 +837,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>69</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>48</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>91</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>55</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>51</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>34</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>85</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>34</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>64</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>84</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>66</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>73</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>76</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>72</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>10</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>60</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>67</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>71</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>30</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>11</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>46</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>73</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>23</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>45</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
         <v>58</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>35</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54">
         <v>60</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55">
         <v>38</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56">
         <v>42</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>77</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60">
         <v>19</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>20</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>48</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66">
         <v>95</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67">
         <v>58</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69">
         <v>53</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70">
         <v>74</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>84</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72">
         <v>75</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>46</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74">
         <v>55</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75">
         <v>86</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>66</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>24</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>28</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>24</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80">
         <v>49</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>56</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>31</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83">
         <v>95</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84">
         <v>49</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85">
         <v>58</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>53</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>61</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <v>59</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <v>98</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>47</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>20</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>17</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93">
         <v>28</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95">
         <v>6</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>92</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>38</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98">
         <v>50</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>50</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>43</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>6</v>
